--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Fgfr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H2">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N2">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q2">
-        <v>25.24451870226847</v>
+        <v>3.991582924469334</v>
       </c>
       <c r="R2">
-        <v>25.24451870226847</v>
+        <v>35.924246320224</v>
       </c>
       <c r="S2">
-        <v>0.005293865516820902</v>
+        <v>0.0005656794736692553</v>
       </c>
       <c r="T2">
-        <v>0.005293865516820902</v>
+        <v>0.0005656794736692552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H3">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I3">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J3">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N3">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q3">
-        <v>519.6500980447825</v>
+        <v>42.94496522317777</v>
       </c>
       <c r="R3">
-        <v>519.6500980447825</v>
+        <v>386.5046870086</v>
       </c>
       <c r="S3">
-        <v>0.108972477047252</v>
+        <v>0.006086078075760222</v>
       </c>
       <c r="T3">
-        <v>0.108972477047252</v>
+        <v>0.006086078075760221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H4">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I4">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J4">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N4">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q4">
-        <v>1.35519299636132</v>
+        <v>0.1800000333715555</v>
       </c>
       <c r="R4">
-        <v>1.35519299636132</v>
+        <v>1.620000300344</v>
       </c>
       <c r="S4">
-        <v>0.0002841887998217098</v>
+        <v>2.550925937524068E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002841887998217098</v>
+        <v>2.550925937524067E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H5">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I5">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J5">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N5">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q5">
-        <v>10.17717507052818</v>
+        <v>0.8358789085724445</v>
       </c>
       <c r="R5">
-        <v>10.17717507052818</v>
+        <v>7.522910177152</v>
       </c>
       <c r="S5">
-        <v>0.002134189873054586</v>
+        <v>0.0001184591551772294</v>
       </c>
       <c r="T5">
-        <v>0.002134189873054586</v>
+        <v>0.0001184591551772294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H6">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I6">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J6">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N6">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q6">
-        <v>5.913045880264169</v>
+        <v>0.5202267485893333</v>
       </c>
       <c r="R6">
-        <v>5.913045880264169</v>
+        <v>4.682040737304</v>
       </c>
       <c r="S6">
-        <v>0.001239986788977582</v>
+        <v>7.372553668537545E-05</v>
       </c>
       <c r="T6">
-        <v>0.001239986788977582</v>
+        <v>7.372553668537544E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H7">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I7">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J7">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N7">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q7">
-        <v>271.139845951507</v>
+        <v>29.902037813352</v>
       </c>
       <c r="R7">
-        <v>271.139845951507</v>
+        <v>269.118340320168</v>
       </c>
       <c r="S7">
-        <v>0.05685899175371609</v>
+        <v>0.004237659427843132</v>
       </c>
       <c r="T7">
-        <v>0.05685899175371609</v>
+        <v>0.004237659427843131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H8">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I8">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J8">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N8">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q8">
-        <v>0.7138269608723978</v>
+        <v>49.59320880890934</v>
       </c>
       <c r="R8">
-        <v>0.7138269608723978</v>
+        <v>446.3388792801841</v>
       </c>
       <c r="S8">
-        <v>0.0001496920570246355</v>
+        <v>0.007028254401184203</v>
       </c>
       <c r="T8">
-        <v>0.0001496920570246355</v>
+        <v>0.007028254401184203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H9">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I9">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J9">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N9">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q9">
-        <v>14.69389274476514</v>
+        <v>533.5674262329278</v>
       </c>
       <c r="R9">
-        <v>14.69389274476514</v>
+        <v>4802.10683609635</v>
       </c>
       <c r="S9">
-        <v>0.00308136166218083</v>
+        <v>0.07561615192514853</v>
       </c>
       <c r="T9">
-        <v>0.00308136166218083</v>
+        <v>0.07561615192514853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H10">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I10">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J10">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N10">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q10">
-        <v>0.03832013235812776</v>
+        <v>2.236400798761556</v>
       </c>
       <c r="R10">
-        <v>0.03832013235812776</v>
+        <v>20.127607188854</v>
       </c>
       <c r="S10">
-        <v>8.035868288210868E-06</v>
+        <v>0.000316938430365975</v>
       </c>
       <c r="T10">
-        <v>8.035868288210868E-06</v>
+        <v>0.000316938430365975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H11">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I11">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J11">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N11">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q11">
-        <v>0.2877750230274208</v>
+        <v>10.38533284569245</v>
       </c>
       <c r="R11">
-        <v>0.2877750230274208</v>
+        <v>93.46799561123201</v>
       </c>
       <c r="S11">
-        <v>6.034744765683759E-05</v>
+        <v>0.001471789445239287</v>
       </c>
       <c r="T11">
-        <v>6.034744765683759E-05</v>
+        <v>0.001471789445239287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H12">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I12">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J12">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N12">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q12">
-        <v>0.1672003186112927</v>
+        <v>6.463529446579333</v>
       </c>
       <c r="R12">
-        <v>0.1672003186112927</v>
+        <v>58.171765019214</v>
       </c>
       <c r="S12">
-        <v>3.506250253914534E-05</v>
+        <v>0.0009159989920221487</v>
       </c>
       <c r="T12">
-        <v>3.506250253914534E-05</v>
+        <v>0.0009159989920221487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H13">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I13">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J13">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N13">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q13">
-        <v>7.666889374665806</v>
+        <v>371.516271401682</v>
       </c>
       <c r="R13">
-        <v>7.666889374665806</v>
+        <v>3343.646442615139</v>
       </c>
       <c r="S13">
-        <v>0.001607774018610095</v>
+        <v>0.05265057317931272</v>
       </c>
       <c r="T13">
-        <v>0.001607774018610095</v>
+        <v>0.05265057317931271</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.1384284118003</v>
+        <v>0.3748256666666667</v>
       </c>
       <c r="H14">
-        <v>39.1384284118003</v>
+        <v>1.124477</v>
       </c>
       <c r="I14">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886993</v>
       </c>
       <c r="J14">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886992</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N14">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P14">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q14">
-        <v>118.4745661821588</v>
+        <v>2.194734717665333</v>
       </c>
       <c r="R14">
-        <v>118.4745661821588</v>
+        <v>19.752612458988</v>
       </c>
       <c r="S14">
-        <v>0.02484453864734157</v>
+        <v>0.0003110335932949765</v>
       </c>
       <c r="T14">
-        <v>0.02484453864734157</v>
+        <v>0.0003110335932949764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.1384284118003</v>
+        <v>0.3748256666666667</v>
       </c>
       <c r="H15">
-        <v>39.1384284118003</v>
+        <v>1.124477</v>
       </c>
       <c r="I15">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886993</v>
       </c>
       <c r="J15">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886992</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N15">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P15">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q15">
-        <v>2438.75990104892</v>
+        <v>23.61288939945278</v>
       </c>
       <c r="R15">
-        <v>2438.75990104892</v>
+        <v>212.516004595075</v>
       </c>
       <c r="S15">
-        <v>0.5114166404292864</v>
+        <v>0.003346373381199037</v>
       </c>
       <c r="T15">
-        <v>0.5114166404292864</v>
+        <v>0.003346373381199037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.1384284118003</v>
+        <v>0.3748256666666667</v>
       </c>
       <c r="H16">
-        <v>39.1384284118003</v>
+        <v>1.124477</v>
       </c>
       <c r="I16">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886993</v>
       </c>
       <c r="J16">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886992</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N16">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P16">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q16">
-        <v>6.360030239854787</v>
+        <v>0.09897134292255555</v>
       </c>
       <c r="R16">
-        <v>6.360030239854787</v>
+        <v>0.890742086303</v>
       </c>
       <c r="S16">
-        <v>0.00133372100176661</v>
+        <v>1.402602882920533E-05</v>
       </c>
       <c r="T16">
-        <v>0.00133372100176661</v>
+        <v>1.402602882920533E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.1384284118003</v>
+        <v>0.3748256666666667</v>
       </c>
       <c r="H17">
-        <v>39.1384284118003</v>
+        <v>1.124477</v>
       </c>
       <c r="I17">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886993</v>
       </c>
       <c r="J17">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886992</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N17">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P17">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q17">
-        <v>47.76230498434339</v>
+        <v>0.4596002375804445</v>
       </c>
       <c r="R17">
-        <v>47.76230498434339</v>
+        <v>4.136402138224</v>
       </c>
       <c r="S17">
-        <v>0.01001592552991623</v>
+        <v>6.51336638652784E-05</v>
       </c>
       <c r="T17">
-        <v>0.01001592552991623</v>
+        <v>6.513366386527838E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.1384284118003</v>
+        <v>0.3748256666666667</v>
       </c>
       <c r="H18">
-        <v>39.1384284118003</v>
+        <v>1.124477</v>
       </c>
       <c r="I18">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886993</v>
       </c>
       <c r="J18">
-        <v>0.8202740266640574</v>
+        <v>0.006107141559886992</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N18">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P18">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q18">
-        <v>27.75040212656332</v>
+        <v>0.2860418354803333</v>
       </c>
       <c r="R18">
-        <v>27.75040212656332</v>
+        <v>2.574376519323</v>
       </c>
       <c r="S18">
-        <v>0.00581935819923261</v>
+        <v>4.053730011469433E-05</v>
       </c>
       <c r="T18">
-        <v>0.00581935819923261</v>
+        <v>4.053730011469433E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.124477</v>
+      </c>
+      <c r="I19">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J19">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.864011</v>
+      </c>
+      <c r="N19">
+        <v>131.592033</v>
+      </c>
+      <c r="O19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P19">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q19">
+        <v>16.441357165749</v>
+      </c>
+      <c r="R19">
+        <v>147.972214491741</v>
+      </c>
+      <c r="S19">
+        <v>0.002330037592583801</v>
+      </c>
+      <c r="T19">
+        <v>0.002330037592583801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434785</v>
+      </c>
+      <c r="I20">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J20">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.855348</v>
+      </c>
+      <c r="N20">
+        <v>17.566044</v>
+      </c>
+      <c r="O20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P20">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q20">
+        <v>0.8486058267266666</v>
+      </c>
+      <c r="R20">
+        <v>7.637452440540001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001202627895997484</v>
+      </c>
+      <c r="T20">
+        <v>0.0001202627895997484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434785</v>
+      </c>
+      <c r="I21">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J21">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N21">
+        <v>188.990975</v>
+      </c>
+      <c r="O21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P21">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q21">
+        <v>9.130049007263889</v>
+      </c>
+      <c r="R21">
+        <v>82.17044106537499</v>
+      </c>
+      <c r="S21">
+        <v>0.001293893028087389</v>
+      </c>
+      <c r="T21">
+        <v>0.001293893028087389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434785</v>
+      </c>
+      <c r="I22">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J22">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792139</v>
+      </c>
+      <c r="O22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P22">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q22">
+        <v>0.03826779501277777</v>
+      </c>
+      <c r="R22">
+        <v>0.344410155115</v>
+      </c>
+      <c r="S22">
+        <v>5.423238487319918E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.423238487319917E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434785</v>
+      </c>
+      <c r="I23">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J23">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.678512</v>
+      </c>
+      <c r="O23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P23">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q23">
+        <v>0.1777068711022222</v>
+      </c>
+      <c r="R23">
+        <v>1.59936183992</v>
+      </c>
+      <c r="S23">
+        <v>2.518427681816975E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.518427681816974E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434785</v>
+      </c>
+      <c r="I24">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J24">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.763133</v>
+      </c>
+      <c r="N24">
+        <v>2.289399</v>
+      </c>
+      <c r="O24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P24">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q24">
+        <v>0.1105995938016667</v>
+      </c>
+      <c r="R24">
+        <v>0.9953963442149999</v>
+      </c>
+      <c r="S24">
+        <v>1.567396223343597E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.567396223343596E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434785</v>
+      </c>
+      <c r="I25">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J25">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>43.864011</v>
+      </c>
+      <c r="N25">
+        <v>131.592033</v>
+      </c>
+      <c r="O25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P25">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q25">
+        <v>6.357138007545</v>
+      </c>
+      <c r="R25">
+        <v>57.214242067905</v>
+      </c>
+      <c r="S25">
+        <v>0.0009009214014084307</v>
+      </c>
+      <c r="T25">
+        <v>0.0009009214014084304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H26">
+        <v>155.111384</v>
+      </c>
+      <c r="I26">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J26">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.855348</v>
+      </c>
+      <c r="N26">
+        <v>17.566044</v>
+      </c>
+      <c r="O26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="P26">
+        <v>0.05092948808292105</v>
+      </c>
+      <c r="Q26">
+        <v>302.7437106938773</v>
+      </c>
+      <c r="R26">
+        <v>2724.693396244896</v>
+      </c>
+      <c r="S26">
+        <v>0.04290425782517287</v>
+      </c>
+      <c r="T26">
+        <v>0.04290425782517286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H27">
+        <v>155.111384</v>
+      </c>
+      <c r="I27">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J27">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N27">
+        <v>188.990975</v>
+      </c>
+      <c r="O27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="P27">
+        <v>0.547944295769846</v>
+      </c>
+      <c r="Q27">
+        <v>3257.183521751044</v>
+      </c>
+      <c r="R27">
+        <v>29314.6516957594</v>
+      </c>
+      <c r="S27">
+        <v>0.461601799359651</v>
+      </c>
+      <c r="T27">
+        <v>0.4616017993596509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="H19">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="I19">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="J19">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="N19">
-        <v>32.5123225038424</v>
-      </c>
-      <c r="O19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="P19">
-        <v>0.3253106086288401</v>
-      </c>
-      <c r="Q19">
-        <v>1272.481206817999</v>
-      </c>
-      <c r="R19">
-        <v>1272.481206817999</v>
-      </c>
-      <c r="S19">
-        <v>0.2668438428565139</v>
-      </c>
-      <c r="T19">
-        <v>0.2668438428565139</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H28">
+        <v>155.111384</v>
+      </c>
+      <c r="I28">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J28">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2640463333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.792139</v>
+      </c>
+      <c r="O28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="P28">
+        <v>0.002296660179179615</v>
+      </c>
+      <c r="Q28">
+        <v>13.65219740115289</v>
+      </c>
+      <c r="R28">
+        <v>122.869776610376</v>
+      </c>
+      <c r="S28">
+        <v>0.001934763222121874</v>
+      </c>
+      <c r="T28">
+        <v>0.001934763222121874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H29">
+        <v>155.111384</v>
+      </c>
+      <c r="I29">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J29">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.226170666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.678512</v>
+      </c>
+      <c r="O29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="P29">
+        <v>0.01066516360011862</v>
+      </c>
+      <c r="Q29">
+        <v>63.39767637562311</v>
+      </c>
+      <c r="R29">
+        <v>570.5790873806079</v>
+      </c>
+      <c r="S29">
+        <v>0.008984597059018657</v>
+      </c>
+      <c r="T29">
+        <v>0.008984597059018653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H30">
+        <v>155.111384</v>
+      </c>
+      <c r="I30">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J30">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.763133</v>
+      </c>
+      <c r="N30">
+        <v>2.289399</v>
+      </c>
+      <c r="O30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="P30">
+        <v>0.006637687978440185</v>
+      </c>
+      <c r="Q30">
+        <v>39.45687193535733</v>
+      </c>
+      <c r="R30">
+        <v>355.111847418216</v>
+      </c>
+      <c r="S30">
+        <v>0.005591752187384532</v>
+      </c>
+      <c r="T30">
+        <v>0.005591752187384531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H31">
+        <v>155.111384</v>
+      </c>
+      <c r="I31">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J31">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>43.864011</v>
+      </c>
+      <c r="N31">
+        <v>131.592033</v>
+      </c>
+      <c r="O31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="P31">
+        <v>0.3815267043894945</v>
+      </c>
+      <c r="Q31">
+        <v>2267.935818000408</v>
+      </c>
+      <c r="R31">
+        <v>20411.42236200367</v>
+      </c>
+      <c r="S31">
+        <v>0.3214075127883465</v>
+      </c>
+      <c r="T31">
+        <v>0.3214075127883464</v>
       </c>
     </row>
   </sheetData>
